--- a/data/trans_orig/P16A11-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Clase-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2315,7 +2315,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4076,7 +4076,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5837,7 +5837,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A11-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>51318</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37710</v>
+        <v>38953</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65550</v>
+        <v>67006</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1083165879173913</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07959417597012987</v>
+        <v>0.08221739691797983</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1383560395207503</v>
+        <v>0.1414295235227573</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -765,19 +765,19 @@
         <v>30525</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20996</v>
+        <v>20628</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43511</v>
+        <v>42669</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09953250158451801</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06846176297505453</v>
+        <v>0.06726385811862252</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.14187890544168</v>
+        <v>0.1391332082974351</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -786,19 +786,19 @@
         <v>81843</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66111</v>
+        <v>65756</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>101100</v>
+        <v>98902</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1048648825867584</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08470783341638155</v>
+        <v>0.08425282763309482</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1295397834524351</v>
+        <v>0.1267232422096444</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>422458</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>408226</v>
+        <v>406770</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>436066</v>
+        <v>434823</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8916834120826087</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8616439604792497</v>
+        <v>0.8585704764772423</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9204058240298701</v>
+        <v>0.9177826030820199</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>268</v>
@@ -836,19 +836,19 @@
         <v>276155</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>263169</v>
+        <v>264011</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>285684</v>
+        <v>286052</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.900467498415482</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8581210945583199</v>
+        <v>0.8608667917025647</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9315382370249454</v>
+        <v>0.9327361418813773</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>674</v>
@@ -857,19 +857,19 @@
         <v>698614</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>679357</v>
+        <v>681555</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>714346</v>
+        <v>714701</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8951351174132416</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.870460216547565</v>
+        <v>0.8732767577903559</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9152921665836184</v>
+        <v>0.9157471723669053</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>47491</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34868</v>
+        <v>35902</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61759</v>
+        <v>61083</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1294273002531287</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09502552643264395</v>
+        <v>0.09784238121505442</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1683100416154846</v>
+        <v>0.166469180751236</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -982,19 +982,19 @@
         <v>21254</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13086</v>
+        <v>13262</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31259</v>
+        <v>31751</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05715413882716067</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03519100106776097</v>
+        <v>0.03566392173688605</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08405990706038953</v>
+        <v>0.08538315093496172</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -1003,19 +1003,19 @@
         <v>68745</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54471</v>
+        <v>54344</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>86670</v>
+        <v>86168</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09304954492476718</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07372899534888065</v>
+        <v>0.07355679267657853</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1173124555249378</v>
+        <v>0.1166325485565527</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>319443</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>305175</v>
+        <v>305851</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>332066</v>
+        <v>331032</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8705726997468712</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8316899583845154</v>
+        <v>0.8335308192487643</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9049744735673561</v>
+        <v>0.9021576187849458</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>344</v>
@@ -1053,19 +1053,19 @@
         <v>350611</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>340606</v>
+        <v>340114</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>358779</v>
+        <v>358603</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9428458611728393</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9159400929396104</v>
+        <v>0.914616849065038</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9648089989322389</v>
+        <v>0.9643360782631138</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>647</v>
@@ -1074,19 +1074,19 @@
         <v>670054</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>652129</v>
+        <v>652631</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>684328</v>
+        <v>684455</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9069504550752329</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8826875444750623</v>
+        <v>0.8833674514434471</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9262710046511193</v>
+        <v>0.9264432073234208</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>63773</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49846</v>
+        <v>49780</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78864</v>
+        <v>79496</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1175780531535034</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09190061508917335</v>
+        <v>0.09177932693064834</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.145400694215121</v>
+        <v>0.1465664981088369</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -1199,19 +1199,19 @@
         <v>23545</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15255</v>
+        <v>15362</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34401</v>
+        <v>33481</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1403328450946077</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09092162516664377</v>
+        <v>0.09156148227871075</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2050344997634662</v>
+        <v>0.1995516779772896</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>88</v>
@@ -1220,19 +1220,19 @@
         <v>87318</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71433</v>
+        <v>70201</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106846</v>
+        <v>105931</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1229540011839702</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1005850985443016</v>
+        <v>0.09885080392072089</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1504516708548701</v>
+        <v>0.149163001906938</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>478616</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>463525</v>
+        <v>462893</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>492543</v>
+        <v>492609</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8824219468464967</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8545993057848789</v>
+        <v>0.8534335018911631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9080993849108266</v>
+        <v>0.9082206730693516</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>141</v>
@@ -1270,19 +1270,19 @@
         <v>144237</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>133381</v>
+        <v>134301</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>152527</v>
+        <v>152420</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8596671549053923</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7949655002365325</v>
+        <v>0.8004483220227097</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9090783748333562</v>
+        <v>0.9084385177212893</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>608</v>
@@ -1291,19 +1291,19 @@
         <v>622853</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>603325</v>
+        <v>604240</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>638738</v>
+        <v>639970</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8770459988160297</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8495483291451302</v>
+        <v>0.8508369980930623</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8994149014556984</v>
+        <v>0.9011491960792795</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>203012</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>177174</v>
+        <v>178334</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>228370</v>
+        <v>230938</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1639398157094585</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1430742381451957</v>
+        <v>0.1440113332300064</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1844168444979553</v>
+        <v>0.1864912156019778</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -1416,19 +1416,19 @@
         <v>98994</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82668</v>
+        <v>79949</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>119025</v>
+        <v>117305</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1385913933583982</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1157347326049162</v>
+        <v>0.11192832999825</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1666351930279312</v>
+        <v>0.1642277649103191</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>311</v>
@@ -1437,19 +1437,19 @@
         <v>302006</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>268538</v>
+        <v>275376</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>332095</v>
+        <v>337015</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1546671416988512</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.137527024387842</v>
+        <v>0.1410289308870913</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1700767035266808</v>
+        <v>0.1725960923566226</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1035322</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1009964</v>
+        <v>1007396</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1061160</v>
+        <v>1060000</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8360601842905415</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8155831555020446</v>
+        <v>0.8135087843980222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8569257618548045</v>
+        <v>0.8559886667699937</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>593</v>
@@ -1487,19 +1487,19 @@
         <v>615291</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>595260</v>
+        <v>596980</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>631617</v>
+        <v>634336</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8614086066416018</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8333648069720688</v>
+        <v>0.835772235089681</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.884265267395084</v>
+        <v>0.88807167000175</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1607</v>
@@ -1508,19 +1508,19 @@
         <v>1650614</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1620525</v>
+        <v>1615605</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1684082</v>
+        <v>1677244</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8453328583011489</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8299232964733192</v>
+        <v>0.8274039076433773</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8624729756121581</v>
+        <v>0.8589710691129087</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>42332</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31525</v>
+        <v>32261</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54841</v>
+        <v>55753</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1211101103687769</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09018994093991391</v>
+        <v>0.09229620770859552</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1568965609832187</v>
+        <v>0.1595050442027496</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>80</v>
@@ -1633,19 +1633,19 @@
         <v>82810</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66070</v>
+        <v>68320</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>100167</v>
+        <v>102413</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.145600068654496</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1161661678006966</v>
+        <v>0.1201217880913061</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1761173417482793</v>
+        <v>0.1800668200506859</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>123</v>
@@ -1654,19 +1654,19 @@
         <v>125143</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>105731</v>
+        <v>107038</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>148926</v>
+        <v>148075</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1362782216666127</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1151386353231069</v>
+        <v>0.1165624479302627</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1621778603142363</v>
+        <v>0.1612512423373344</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>307205</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>294696</v>
+        <v>293784</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>318012</v>
+        <v>317276</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8788898896312231</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8431034390167812</v>
+        <v>0.8404949557972503</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9098100590600859</v>
+        <v>0.9077037922914044</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>459</v>
@@ -1704,19 +1704,19 @@
         <v>485942</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>468585</v>
+        <v>466339</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>502682</v>
+        <v>500432</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8543999313455041</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8238826582517208</v>
+        <v>0.819933179949314</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8838338321993034</v>
+        <v>0.8798782119086939</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>755</v>
@@ -1725,19 +1725,19 @@
         <v>793146</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>769363</v>
+        <v>770214</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>812558</v>
+        <v>811251</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8637217783333873</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8378221396857637</v>
+        <v>0.8387487576626655</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8848613646768931</v>
+        <v>0.8834375520697373</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>4720</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1694</v>
+        <v>1801</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9899</v>
+        <v>10563</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01582840712908418</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005682104856876292</v>
+        <v>0.006039877915898101</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03319626796794677</v>
+        <v>0.03542282030351612</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>295</v>
@@ -1850,19 +1850,19 @@
         <v>306256</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>280695</v>
+        <v>278312</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>336601</v>
+        <v>336242</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2452482551115897</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2247790833383621</v>
+        <v>0.2228705640058873</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2695480570004468</v>
+        <v>0.269260657248691</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>300</v>
@@ -1871,19 +1871,19 @@
         <v>310976</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>280984</v>
+        <v>279356</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>345491</v>
+        <v>342166</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2010240295847073</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1816361501354627</v>
+        <v>0.1805838685550963</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2233353060378162</v>
+        <v>0.2211862585580233</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>293481</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>288302</v>
+        <v>287638</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>296507</v>
+        <v>296400</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9841715928709158</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9668037320320535</v>
+        <v>0.9645771796964823</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9943178951431237</v>
+        <v>0.9939601220841018</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>943</v>
@@ -1921,19 +1921,19 @@
         <v>942504</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>912159</v>
+        <v>912518</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>968065</v>
+        <v>970448</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7547517448884103</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7304519429995532</v>
+        <v>0.730739342751309</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7752209166616379</v>
+        <v>0.7771294359941128</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1244</v>
@@ -1942,19 +1942,19 @@
         <v>1235984</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1201469</v>
+        <v>1204794</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1265976</v>
+        <v>1267604</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7989759704152928</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7766646939621838</v>
+        <v>0.7788137414419768</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8183638498645375</v>
+        <v>0.8194161314449038</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>412647</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>379251</v>
+        <v>378075</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>448088</v>
+        <v>454141</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1262237234400662</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1160081559984581</v>
+        <v>0.1156486137733205</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1370646357008909</v>
+        <v>0.138916355718164</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>548</v>
@@ -2067,19 +2067,19 @@
         <v>563384</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>520517</v>
+        <v>522207</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>609575</v>
+        <v>604340</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1667741746956728</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1540845944381202</v>
+        <v>0.1545849962330312</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1804477355927434</v>
+        <v>0.1788979624668174</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>967</v>
@@ -2088,19 +2088,19 @@
         <v>976031</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>921312</v>
+        <v>921589</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1037333</v>
+        <v>1034466</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1468312692042177</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.138599545295832</v>
+        <v>0.1386411647185317</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1560534118144363</v>
+        <v>0.1556220890263184</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2856525</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2821084</v>
+        <v>2815031</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2889921</v>
+        <v>2891097</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8737762765599338</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8629353642991091</v>
+        <v>0.8610836442818358</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8839918440015418</v>
+        <v>0.8843513862266793</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2748</v>
@@ -2138,19 +2138,19 @@
         <v>2814740</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2768549</v>
+        <v>2773784</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2857607</v>
+        <v>2855917</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8332258253043272</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8195522644072566</v>
+        <v>0.8211020375331826</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8459154055618798</v>
+        <v>0.8454150037669688</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5535</v>
@@ -2159,19 +2159,19 @@
         <v>5671265</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5609963</v>
+        <v>5612830</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5725984</v>
+        <v>5725707</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8531687307957823</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8439465881855638</v>
+        <v>0.8443779109736816</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.861400454704168</v>
+        <v>0.8613588352814682</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>71151</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56646</v>
+        <v>55676</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88241</v>
+        <v>89626</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1627381014021391</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1295627073455011</v>
+        <v>0.1273430946994202</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2018276351766833</v>
+        <v>0.2049943252655857</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -2526,19 +2526,19 @@
         <v>28644</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18748</v>
+        <v>19103</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41621</v>
+        <v>41215</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09109059965268708</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05961964226260325</v>
+        <v>0.0607505260390407</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1323586777226018</v>
+        <v>0.1310699737095957</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -2547,19 +2547,19 @@
         <v>99795</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80409</v>
+        <v>82152</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124682</v>
+        <v>121906</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1327648277746772</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1069744929352213</v>
+        <v>0.109293293959824</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1658746284264406</v>
+        <v>0.1621814831706654</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>366060</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>348970</v>
+        <v>347585</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>380565</v>
+        <v>381535</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8372618985978609</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7981723648233169</v>
+        <v>0.7950056747344143</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8704372926544991</v>
+        <v>0.8726569053005798</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>260</v>
@@ -2597,19 +2597,19 @@
         <v>285810</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>272833</v>
+        <v>273239</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>295706</v>
+        <v>295351</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9089094003473129</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8676413222773978</v>
+        <v>0.8689300262904042</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9403803577373968</v>
+        <v>0.9392494739609593</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>602</v>
@@ -2618,19 +2618,19 @@
         <v>651870</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>626983</v>
+        <v>629759</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>671256</v>
+        <v>669513</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8672351722253228</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8341253715735594</v>
+        <v>0.8378185168293347</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8930255070647788</v>
+        <v>0.890706706040176</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>54979</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42706</v>
+        <v>42543</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69577</v>
+        <v>69771</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1318378049808711</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1024084400823097</v>
+        <v>0.10201824751511</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1668438767053489</v>
+        <v>0.1673086949250271</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>32121</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21554</v>
+        <v>21522</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45069</v>
+        <v>44869</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09579331069615596</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06428001032090455</v>
+        <v>0.06418403371223354</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1344081789001482</v>
+        <v>0.1338116598413469</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -2764,19 +2764,19 @@
         <v>87100</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69330</v>
+        <v>69963</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107634</v>
+        <v>105925</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1157727476853806</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09215281008193481</v>
+        <v>0.09299445045702714</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1430668707907007</v>
+        <v>0.140795344750359</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>362039</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>347441</v>
+        <v>347247</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>374312</v>
+        <v>374475</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8681621950191289</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8331561232946508</v>
+        <v>0.8326913050749729</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8975915599176899</v>
+        <v>0.8979817524848897</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>275</v>
@@ -2814,19 +2814,19 @@
         <v>303194</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>290246</v>
+        <v>290446</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>313761</v>
+        <v>313793</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9042066893038441</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8655918210998518</v>
+        <v>0.8661883401586534</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9357199896790954</v>
+        <v>0.9358159662877674</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>595</v>
@@ -2835,19 +2835,19 @@
         <v>665233</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>644699</v>
+        <v>646408</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>683003</v>
+        <v>682370</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8842272523146194</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8569331292092993</v>
+        <v>0.8592046552496408</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9078471899180651</v>
+        <v>0.9070055495429729</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>133268</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>113753</v>
+        <v>112248</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>158223</v>
+        <v>155139</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2120984798922333</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1810397296083301</v>
+        <v>0.1786445674837918</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2518159912942027</v>
+        <v>0.2469067635926709</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -2960,19 +2960,19 @@
         <v>57831</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44189</v>
+        <v>45460</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71662</v>
+        <v>72099</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2251881660722432</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1720690793567789</v>
+        <v>0.1770181886644349</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2790455226229653</v>
+        <v>0.2807481143421569</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>172</v>
@@ -2981,19 +2981,19 @@
         <v>191099</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>165737</v>
+        <v>166297</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>219017</v>
+        <v>215822</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2158962826229203</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.187243128107913</v>
+        <v>0.1878765084536154</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2474370159907835</v>
+        <v>0.2438280177473819</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>495061</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>470106</v>
+        <v>473190</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>514576</v>
+        <v>516081</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7879015201077667</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7481840087057969</v>
+        <v>0.7530932364073289</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8189602703916696</v>
+        <v>0.8213554325162081</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>187</v>
@@ -3031,19 +3031,19 @@
         <v>198981</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>185150</v>
+        <v>184713</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>212623</v>
+        <v>211352</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7748118339277568</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7209544773770346</v>
+        <v>0.7192518856578426</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.827930920643221</v>
+        <v>0.822981811335565</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>659</v>
@@ -3052,19 +3052,19 @@
         <v>694043</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>666125</v>
+        <v>669320</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>719405</v>
+        <v>718845</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7841037173770797</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7525629840092166</v>
+        <v>0.7561719822526183</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8127568718920871</v>
+        <v>0.8121234915463846</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>213132</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>184657</v>
+        <v>185494</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>240843</v>
+        <v>239465</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1840312198949922</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1594439954351694</v>
+        <v>0.1601671664903788</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2079582338256279</v>
+        <v>0.2067687886018066</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -3177,19 +3177,19 @@
         <v>82486</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65842</v>
+        <v>66958</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102600</v>
+        <v>101344</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1075922219039033</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08588245298601423</v>
+        <v>0.08733765454395094</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1338274630423897</v>
+        <v>0.1321900765472624</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>275</v>
@@ -3198,19 +3198,19 @@
         <v>295619</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>266799</v>
+        <v>262783</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>328366</v>
+        <v>327258</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1535849906171273</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1386121299298783</v>
+        <v>0.1365255085108343</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.170598517891841</v>
+        <v>0.1700228727063166</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>944998</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>917287</v>
+        <v>918665</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>973473</v>
+        <v>972636</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8159687801050078</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7920417661743718</v>
+        <v>0.7932312113981934</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8405560045648305</v>
+        <v>0.8398328335096213</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>633</v>
@@ -3248,19 +3248,19 @@
         <v>684171</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>664057</v>
+        <v>665313</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>700815</v>
+        <v>699699</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8924077780960966</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8661725369576102</v>
+        <v>0.8678099234527377</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9141175470139857</v>
+        <v>0.9126623454560491</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1518</v>
@@ -3269,19 +3269,19 @@
         <v>1629169</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1596422</v>
+        <v>1597530</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1657989</v>
+        <v>1662005</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8464150093828727</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.829401482108159</v>
+        <v>0.8299771272936836</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8613878700701216</v>
+        <v>0.8634744914891657</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>92865</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>77041</v>
+        <v>76204</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>113278</v>
+        <v>115842</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1818748023214037</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1508849738852139</v>
+        <v>0.1492459083747013</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2218550589634987</v>
+        <v>0.2268757723113859</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>178</v>
@@ -3394,19 +3394,19 @@
         <v>190204</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>166340</v>
+        <v>167856</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>214647</v>
+        <v>214497</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2504969884868636</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2190684542336485</v>
+        <v>0.2210656032112429</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2826884139375677</v>
+        <v>0.2824908154553584</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>262</v>
@@ -3415,19 +3415,19 @@
         <v>283068</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>255179</v>
+        <v>254917</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>318050</v>
+        <v>315141</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2229056772493105</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2009437140808641</v>
+        <v>0.2007373705350917</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2504526724762038</v>
+        <v>0.2481621389707975</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>417731</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>397318</v>
+        <v>394754</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>433555</v>
+        <v>434392</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8181251976785964</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7781449410365012</v>
+        <v>0.773124227688614</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.849115026114786</v>
+        <v>0.8507540916252987</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>523</v>
@@ -3465,19 +3465,19 @@
         <v>569101</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>544658</v>
+        <v>544808</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>592965</v>
+        <v>591449</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7495030115131365</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7173115860624323</v>
+        <v>0.7175091845446413</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7809315457663515</v>
+        <v>0.7789343967887569</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>926</v>
@@ -3486,19 +3486,19 @@
         <v>986833</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>951851</v>
+        <v>954760</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1014722</v>
+        <v>1014984</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7770943227506895</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.749547327523796</v>
+        <v>0.7518378610292024</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7990562859191356</v>
+        <v>0.7992626294649082</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>3960</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>973</v>
+        <v>988</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9054</v>
+        <v>9863</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01489638797605666</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003658367437235097</v>
+        <v>0.003715485753927039</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03405797857661998</v>
+        <v>0.03710033741728138</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>325</v>
@@ -3611,19 +3611,19 @@
         <v>348238</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>316576</v>
+        <v>316293</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>380220</v>
+        <v>379114</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3147769497883988</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2861575337201829</v>
+        <v>0.2859013533607568</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3436864053292392</v>
+        <v>0.3426863030289799</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>329</v>
@@ -3632,19 +3632,19 @@
         <v>352198</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>321691</v>
+        <v>318074</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>386496</v>
+        <v>382591</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2566775427971136</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2344448288144454</v>
+        <v>0.2318086789904542</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2816733963013422</v>
+        <v>0.2788273955785366</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>261881</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>256787</v>
+        <v>255978</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264868</v>
+        <v>264853</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9851036120239434</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9659420214233801</v>
+        <v>0.9628996625827186</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.996341632562765</v>
+        <v>0.996284514246073</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>716</v>
@@ -3682,19 +3682,19 @@
         <v>758062</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>726080</v>
+        <v>727186</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>789724</v>
+        <v>790007</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6852230502116012</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6563135946707608</v>
+        <v>0.6573136969710206</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7138424662798168</v>
+        <v>0.7140986466392433</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>976</v>
@@ -3703,19 +3703,19 @@
         <v>1019943</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>985645</v>
+        <v>989550</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1050450</v>
+        <v>1054067</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7433224572028864</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7183266036986579</v>
+        <v>0.7211726044214635</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7655551711855548</v>
+        <v>0.7681913210095458</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>569354</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>525677</v>
+        <v>517987</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>616211</v>
+        <v>615321</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1666178379804363</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1538361765511484</v>
+        <v>0.1515855191470138</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1803302348419959</v>
+        <v>0.1800697826164855</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>686</v>
@@ -3828,19 +3828,19 @@
         <v>739524</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>688807</v>
+        <v>693638</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>789599</v>
+        <v>792016</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2089731916621336</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1946419138538485</v>
+        <v>0.1960069205345748</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2231233796967773</v>
+        <v>0.2238065182166153</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1204</v>
@@ -3849,19 +3849,19 @@
         <v>1308877</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1235586</v>
+        <v>1243296</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1377312</v>
+        <v>1377489</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1881660911196219</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1776295852889997</v>
+        <v>0.1787380284907343</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1980042687970036</v>
+        <v>0.1980298273579776</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2847771</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2800914</v>
+        <v>2801804</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2891448</v>
+        <v>2899138</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8333821620195637</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8196697651580039</v>
+        <v>0.8199302173835141</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8461638234488513</v>
+        <v>0.8484144808529859</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2594</v>
@@ -3899,19 +3899,19 @@
         <v>2799320</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2749245</v>
+        <v>2746828</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2850037</v>
+        <v>2845206</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7910268083378663</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7768766203032224</v>
+        <v>0.7761934817833848</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8053580861461516</v>
+        <v>0.8039930794654252</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5276</v>
@@ -3920,19 +3920,19 @@
         <v>5647092</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5578657</v>
+        <v>5578480</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5720383</v>
+        <v>5712673</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8118339088803781</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8019957312029964</v>
+        <v>0.8019701726420224</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8223704147110003</v>
+        <v>0.8212619715092657</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>53311</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40070</v>
+        <v>40485</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68840</v>
+        <v>68809</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1242422897533914</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0933838780733504</v>
+        <v>0.09435059053801607</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1604309512533651</v>
+        <v>0.1603604280845037</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -4287,19 +4287,19 @@
         <v>32725</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21456</v>
+        <v>22289</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46266</v>
+        <v>47617</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09429381795435535</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06182445445895811</v>
+        <v>0.06422222932416516</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1333101611629766</v>
+        <v>0.1372037906485326</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -4308,19 +4308,19 @@
         <v>86037</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68759</v>
+        <v>68458</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>105634</v>
+        <v>106294</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1108507992331107</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08858965746963246</v>
+        <v>0.0882017430311717</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1361001646956252</v>
+        <v>0.1369505326638287</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>375781</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>360252</v>
+        <v>360283</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>389022</v>
+        <v>388607</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8757577102466086</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8395690487466348</v>
+        <v>0.8396395719154963</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9066161219266498</v>
+        <v>0.9056494094619839</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>307</v>
@@ -4358,19 +4358,19 @@
         <v>314330</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>300789</v>
+        <v>299438</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>325599</v>
+        <v>324766</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9057061820456447</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8666898388370234</v>
+        <v>0.8627962093514673</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9381755455410418</v>
+        <v>0.9357777706758346</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>653</v>
@@ -4379,19 +4379,19 @@
         <v>690110</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>670513</v>
+        <v>669853</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>707388</v>
+        <v>707689</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8891492007668893</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8638998353043748</v>
+        <v>0.8630494673361714</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9114103425303675</v>
+        <v>0.9117982569688282</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>53508</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40192</v>
+        <v>41639</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68128</v>
+        <v>67544</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1418461051520598</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1065468259614017</v>
+        <v>0.1103826123865751</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1806010947414665</v>
+        <v>0.1790528382883457</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -4504,19 +4504,19 @@
         <v>27806</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18460</v>
+        <v>17971</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41202</v>
+        <v>40844</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0746926013478698</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0495867165461334</v>
+        <v>0.04827243986131968</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1106761290251774</v>
+        <v>0.1097142044283693</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -4525,19 +4525,19 @@
         <v>81314</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64635</v>
+        <v>64948</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101743</v>
+        <v>101399</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1084912745164405</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08623765810681711</v>
+        <v>0.08665498562465798</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1357471995898681</v>
+        <v>0.135289341064315</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>323719</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>309099</v>
+        <v>309683</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>337035</v>
+        <v>335588</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8581538948479402</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8193989052585333</v>
+        <v>0.8209471617116542</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8934531740385981</v>
+        <v>0.8896173876134249</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>329</v>
@@ -4575,19 +4575,19 @@
         <v>344467</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>331071</v>
+        <v>331429</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>353813</v>
+        <v>354302</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9253073986521302</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8893238709748219</v>
+        <v>0.8902857955716316</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9504132834538666</v>
+        <v>0.9517275601386804</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>632</v>
@@ -4596,19 +4596,19 @@
         <v>668186</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>647757</v>
+        <v>648101</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>684865</v>
+        <v>684552</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8915087254835595</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8642528004101309</v>
+        <v>0.864710658935685</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9137623418931826</v>
+        <v>0.9133450143753421</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>84379</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69406</v>
+        <v>67338</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103273</v>
+        <v>100112</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.161671391370061</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1329836764396074</v>
+        <v>0.1290212814989558</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1978734972393876</v>
+        <v>0.1918176417189568</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -4721,19 +4721,19 @@
         <v>34549</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24080</v>
+        <v>23735</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46651</v>
+        <v>47988</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.207973058722531</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1449505013686315</v>
+        <v>0.1428784435889275</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2808247780057717</v>
+        <v>0.2888695824632575</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>113</v>
@@ -4742,19 +4742,19 @@
         <v>118927</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>99860</v>
+        <v>99798</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>139695</v>
+        <v>141172</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1728506861806711</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1451376687408379</v>
+        <v>0.1450481289384673</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2030339898947596</v>
+        <v>0.2051806100801303</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>437535</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>418641</v>
+        <v>421802</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>452508</v>
+        <v>454576</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8383286086299391</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8021265027606125</v>
+        <v>0.8081823582810431</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8670163235603926</v>
+        <v>0.8709787185010441</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>126</v>
@@ -4792,19 +4792,19 @@
         <v>131574</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>119472</v>
+        <v>118135</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>142043</v>
+        <v>142388</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.792026941277469</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7191752219942282</v>
+        <v>0.7111304175367427</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8550494986313681</v>
+        <v>0.8571215564110726</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>542</v>
@@ -4813,19 +4813,19 @@
         <v>569109</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>548341</v>
+        <v>546864</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>588176</v>
+        <v>588238</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8271493138193289</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7969660101052402</v>
+        <v>0.7948193899198694</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8548623312591618</v>
+        <v>0.8549518710615326</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>205667</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>179293</v>
+        <v>181588</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>231063</v>
+        <v>233163</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1788967764264847</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1559560613761427</v>
+        <v>0.1579524327054082</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2009873530228209</v>
+        <v>0.2028140514098285</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -4938,19 +4938,19 @@
         <v>88685</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71134</v>
+        <v>70727</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>108459</v>
+        <v>104943</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1073828955271557</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08613171216923005</v>
+        <v>0.08563928867565526</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.131326278981878</v>
+        <v>0.1270688225549471</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>284</v>
@@ -4959,19 +4959,19 @@
         <v>294352</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>261381</v>
+        <v>264603</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>325297</v>
+        <v>327533</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1489999592337595</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1323104166231407</v>
+        <v>0.1339415872953487</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1646645702045374</v>
+        <v>0.1657964372435122</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>943971</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>918575</v>
+        <v>916475</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>970345</v>
+        <v>968050</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8211032235735153</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7990126469771792</v>
+        <v>0.7971859485901718</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8440439386238574</v>
+        <v>0.842047567294592</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>718</v>
@@ -5009,19 +5009,19 @@
         <v>737191</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>717417</v>
+        <v>720933</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>754742</v>
+        <v>755149</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8926171044728443</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8686737210181221</v>
+        <v>0.872931177445053</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9138682878307699</v>
+        <v>0.9143607113243447</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1617</v>
@@ -5030,19 +5030,19 @@
         <v>1681162</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1650217</v>
+        <v>1647981</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1714133</v>
+        <v>1710911</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8510000407662405</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8353354297954626</v>
+        <v>0.8342035627564878</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8676895833768593</v>
+        <v>0.8660584127046512</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>105730</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>88617</v>
+        <v>88078</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>124744</v>
+        <v>125128</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.170338540476777</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.142767614283486</v>
+        <v>0.1418990849163654</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2009709985304494</v>
+        <v>0.2015895957688799</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>129</v>
@@ -5155,19 +5155,19 @@
         <v>144655</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>123580</v>
+        <v>123355</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>168197</v>
+        <v>166320</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1959447526284984</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1673976214643734</v>
+        <v>0.1670928948456395</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2278336177899915</v>
+        <v>0.225291123946604</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>238</v>
@@ -5176,19 +5176,19 @@
         <v>250385</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>220880</v>
+        <v>221401</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>278166</v>
+        <v>281144</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.184249012280764</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1625375974910144</v>
+        <v>0.1629203477402937</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2046919121964028</v>
+        <v>0.2068832575753489</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>514976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>495962</v>
+        <v>495578</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>532089</v>
+        <v>532628</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.829661459523223</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7990290014695506</v>
+        <v>0.7984104042311199</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8572323857165138</v>
+        <v>0.8581009150836344</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>570</v>
@@ -5226,19 +5226,19 @@
         <v>593589</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>570047</v>
+        <v>571924</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>614664</v>
+        <v>614889</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8040552473715016</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7721663822100089</v>
+        <v>0.7747088760533962</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8326023785356267</v>
+        <v>0.8329071051543607</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1058</v>
@@ -5247,19 +5247,19 @@
         <v>1108565</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1080784</v>
+        <v>1077806</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1138070</v>
+        <v>1137549</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.815750987719236</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7953080878035972</v>
+        <v>0.7931167424246512</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.837462402508986</v>
+        <v>0.8370796522597064</v>
       </c>
     </row>
     <row r="18">
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4997</v>
+        <v>5639</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003458721072646558</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01740261369978675</v>
+        <v>0.01963987899515316</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>250</v>
@@ -5372,19 +5372,19 @@
         <v>297767</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>267973</v>
+        <v>267440</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>328232</v>
+        <v>329721</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2751937405852087</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.247658419093436</v>
+        <v>0.2471660223837081</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3033500795691185</v>
+        <v>0.3047262277295966</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>251</v>
@@ -5393,19 +5393,19 @@
         <v>298760</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>266365</v>
+        <v>265659</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>330720</v>
+        <v>333393</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2182049135847193</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1945446328392364</v>
+        <v>0.194029053155488</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2415478672341761</v>
+        <v>0.2435002995157441</v>
       </c>
     </row>
     <row r="20">
@@ -5422,7 +5422,7 @@
         <v>286152</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>282148</v>
+        <v>281506</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -5431,7 +5431,7 @@
         <v>0.9965412789273534</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9825973863002133</v>
+        <v>0.9803601210048473</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5443,19 +5443,19 @@
         <v>784258</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>753793</v>
+        <v>752304</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>814052</v>
+        <v>814585</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7248062594147914</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6966499204308816</v>
+        <v>0.6952737722704034</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.752341580906564</v>
+        <v>0.752833977616292</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1013</v>
@@ -5464,19 +5464,19 @@
         <v>1070410</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1038450</v>
+        <v>1035777</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1102805</v>
+        <v>1103511</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7817950864152807</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7584521327658239</v>
+        <v>0.756499700484256</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8054553671607636</v>
+        <v>0.805970946844512</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>503588</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>465553</v>
+        <v>464602</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>546688</v>
+        <v>546136</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1487387147245121</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.137504741032706</v>
+        <v>0.1372239092597471</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1614685585531416</v>
+        <v>0.1613056471417698</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>534</v>
@@ -5589,19 +5589,19 @@
         <v>626187</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>575769</v>
+        <v>584192</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>672173</v>
+        <v>680901</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1773098452159946</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1630336072067831</v>
+        <v>0.165418799847476</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.190331153646287</v>
+        <v>0.192802538265354</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1035</v>
@@ -5610,19 +5610,19 @@
         <v>1129775</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1061745</v>
+        <v>1067080</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1191122</v>
+        <v>1195576</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.16332553664681</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1534908562481913</v>
+        <v>0.1542621539500468</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1721942140042311</v>
+        <v>0.1728380871142008</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2882134</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2839034</v>
+        <v>2839586</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2920169</v>
+        <v>2921120</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8512612852754878</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8385314414468584</v>
+        <v>0.8386943528582301</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8624952589672941</v>
+        <v>0.8627760907402527</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2792</v>
@@ -5660,19 +5660,19 @@
         <v>2905409</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2859423</v>
+        <v>2850695</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2955827</v>
+        <v>2947404</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8226901547840054</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8096688463537126</v>
+        <v>0.8071974617346462</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8369663927932168</v>
+        <v>0.8345812001525239</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5515</v>
@@ -5681,19 +5681,19 @@
         <v>5787543</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5726196</v>
+        <v>5721742</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5855573</v>
+        <v>5850238</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.83667446335319</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8278057859957689</v>
+        <v>0.8271619128857992</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8465091437518087</v>
+        <v>0.8457378460499533</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>109793</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91557</v>
+        <v>92996</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>127487</v>
+        <v>129613</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1993992401091909</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1662797902709037</v>
+        <v>0.1688936555755804</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2315346116827668</v>
+        <v>0.2353948742381639</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>97</v>
@@ -6048,19 +6048,19 @@
         <v>59222</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47372</v>
+        <v>48397</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71129</v>
+        <v>71519</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.121254990427616</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09699191258493436</v>
+        <v>0.09909102536524897</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1456328559438108</v>
+        <v>0.1464314960815723</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>236</v>
@@ -6069,19 +6069,19 @@
         <v>169015</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>147195</v>
+        <v>148765</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>190574</v>
+        <v>192273</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1626663898956613</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1416660851221646</v>
+        <v>0.1431765871826315</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1834152778364142</v>
+        <v>0.1850507627746052</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>440825</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>423131</v>
+        <v>421005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>459061</v>
+        <v>457622</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8006007598908093</v>
+        <v>0.8006007598908091</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7684653883172332</v>
+        <v>0.764605125761836</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8337202097290964</v>
+        <v>0.8311063444244196</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>589</v>
@@ -6119,19 +6119,19 @@
         <v>429189</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>417282</v>
+        <v>416892</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>441039</v>
+        <v>440014</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8787450095723842</v>
+        <v>0.878745009572384</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8543671440561892</v>
+        <v>0.8535685039184276</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9030080874150656</v>
+        <v>0.9009089746347511</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1004</v>
@@ -6140,19 +6140,19 @@
         <v>870014</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>848455</v>
+        <v>846756</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>891834</v>
+        <v>890264</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8373336101043388</v>
+        <v>0.8373336101043387</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8165847221635866</v>
+        <v>0.8149492372253948</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8583339148778356</v>
+        <v>0.8568234128173686</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>100257</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>84846</v>
+        <v>83911</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>118739</v>
+        <v>117626</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2078776096773926</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1759236658868913</v>
+        <v>0.1739843297370667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2461975986359754</v>
+        <v>0.2438914268490572</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -6265,19 +6265,19 @@
         <v>55769</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44766</v>
+        <v>45481</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66742</v>
+        <v>67115</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1317969108819219</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1057930262074959</v>
+        <v>0.1074837440798059</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1577282036678917</v>
+        <v>0.1586108429128363</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>218</v>
@@ -6286,19 +6286,19 @@
         <v>156026</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>136757</v>
+        <v>135195</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>177204</v>
+        <v>177214</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1723222381034133</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1510405658549691</v>
+        <v>0.1493157287485864</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1957119387527071</v>
+        <v>0.1957230683139413</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>382033</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>363551</v>
+        <v>364664</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>397444</v>
+        <v>398379</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7921223903226075</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7538024013640244</v>
+        <v>0.7561085731509428</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8240763341131087</v>
+        <v>0.8260156702629333</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>498</v>
@@ -6336,19 +6336,19 @@
         <v>367374</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>356401</v>
+        <v>356028</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>378377</v>
+        <v>377662</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.868203089118078</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8422717963321085</v>
+        <v>0.8413891570871642</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.894206973792504</v>
+        <v>0.8925162559201942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>852</v>
@@ -6357,19 +6357,19 @@
         <v>749407</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>728229</v>
+        <v>728219</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>768676</v>
+        <v>770238</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8276777618965866</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8042880612472928</v>
+        <v>0.8042769316860583</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8489594341450308</v>
+        <v>0.8506842712514135</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>97022</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80729</v>
+        <v>81240</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115460</v>
+        <v>117448</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2057234706960927</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1711766262366603</v>
+        <v>0.1722606250321346</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2448204533162015</v>
+        <v>0.2490355563438263</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -6482,19 +6482,19 @@
         <v>43449</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35482</v>
+        <v>35079</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52537</v>
+        <v>53090</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2317326090522528</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1892417066518866</v>
+        <v>0.1870909970349691</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2801991544909207</v>
+        <v>0.2831491024248072</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>205</v>
@@ -6503,19 +6503,19 @@
         <v>140471</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>121942</v>
+        <v>122290</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159095</v>
+        <v>161336</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2131223118980275</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1850100161936377</v>
+        <v>0.1855382561110694</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2413788093625737</v>
+        <v>0.2447783143849476</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>374590</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>356152</v>
+        <v>354164</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>390883</v>
+        <v>390372</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7942765293039074</v>
+        <v>0.7942765293039072</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7551795466837983</v>
+        <v>0.7509644436561738</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8288233737633397</v>
+        <v>0.8277393749678654</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>210</v>
@@ -6553,19 +6553,19 @@
         <v>144048</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>134960</v>
+        <v>134407</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>152015</v>
+        <v>152418</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7682673909477471</v>
+        <v>0.768267390947747</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7198008455090794</v>
+        <v>0.7168508975751928</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8107582933481133</v>
+        <v>0.8129090029650304</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>572</v>
@@ -6574,19 +6574,19 @@
         <v>518638</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>500014</v>
+        <v>497773</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>537167</v>
+        <v>536819</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7868776881019725</v>
+        <v>0.7868776881019727</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7586211906374263</v>
+        <v>0.7552216856150524</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8149899838063621</v>
+        <v>0.8144617438889306</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>238429</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>212671</v>
+        <v>213026</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>265980</v>
+        <v>268161</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2106556912099031</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1878977610279129</v>
+        <v>0.1882120253869206</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2349969886360239</v>
+        <v>0.2369246086771376</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>244</v>
@@ -6699,19 +6699,19 @@
         <v>133067</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118841</v>
+        <v>118168</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>150693</v>
+        <v>149283</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1546187971064749</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1380884139626585</v>
+        <v>0.1373062506543158</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1750994488297493</v>
+        <v>0.1734606463011166</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>557</v>
@@ -6720,19 +6720,19 @@
         <v>371496</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>340259</v>
+        <v>338906</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>402608</v>
+        <v>405110</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1864513131125461</v>
+        <v>0.1864513131125462</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1707735702394728</v>
+        <v>0.1700945744923395</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2020661975605884</v>
+        <v>0.2033217869559261</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>893414</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>865863</v>
+        <v>863682</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>919172</v>
+        <v>918817</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7893443087900969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.765003011363976</v>
+        <v>0.7630753913228624</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8121022389720872</v>
+        <v>0.8117879746130793</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>985</v>
@@ -6770,19 +6770,19 @@
         <v>727548</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>709922</v>
+        <v>711332</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>741774</v>
+        <v>742447</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8453812028935253</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8249005511702507</v>
+        <v>0.8265393536988834</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8619115860373416</v>
+        <v>0.8626937493456842</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1790</v>
@@ -6791,19 +6791,19 @@
         <v>1620962</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1589850</v>
+        <v>1587348</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1652199</v>
+        <v>1653552</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8135486868874537</v>
+        <v>0.813548686887454</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7979338024394117</v>
+        <v>0.7966782130440738</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8292264297605277</v>
+        <v>0.8299054255076606</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>103632</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>86919</v>
+        <v>86388</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>120304</v>
+        <v>120591</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1827798460540563</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1533024001111912</v>
+        <v>0.1523667801853206</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.212184677506896</v>
+        <v>0.2126924170224598</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>417</v>
@@ -6916,19 +6916,19 @@
         <v>221940</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>203823</v>
+        <v>202656</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>242076</v>
+        <v>241405</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2673572343541992</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2455318537497045</v>
+        <v>0.2441270727900695</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2916133235058651</v>
+        <v>0.2908045674322909</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>555</v>
@@ -6937,19 +6937,19 @@
         <v>325572</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>298664</v>
+        <v>298890</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>349998</v>
+        <v>354035</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2330338199924723</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2137737301056802</v>
+        <v>0.2139355335928709</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2505172281040414</v>
+        <v>0.2534065469314463</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>463344</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>446672</v>
+        <v>446385</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>480057</v>
+        <v>480588</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8172201539459438</v>
+        <v>0.8172201539459435</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7878153224931039</v>
+        <v>0.7873075829775403</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8466975998888089</v>
+        <v>0.8476332198146794</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>872</v>
@@ -6987,19 +6987,19 @@
         <v>608187</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>588051</v>
+        <v>588722</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>626304</v>
+        <v>627471</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7326427656458009</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7083866764941349</v>
+        <v>0.7091954325677089</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7544681462502952</v>
+        <v>0.7558729272099307</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1280</v>
@@ -7008,19 +7008,19 @@
         <v>1071531</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1047105</v>
+        <v>1043068</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1098439</v>
+        <v>1098213</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7669661800075278</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7494827718959586</v>
+        <v>0.7465934530685537</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7862262698943199</v>
+        <v>0.7860644664071291</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>2826</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8321</v>
+        <v>7087</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01191231452233065</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003339301863300084</v>
+        <v>0.003308948044530809</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03507542204659429</v>
+        <v>0.02987431250165326</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>439</v>
@@ -7133,19 +7133,19 @@
         <v>241480</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>217411</v>
+        <v>218006</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>263385</v>
+        <v>263321</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2864558811049174</v>
+        <v>0.2864558811049173</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2579039342304809</v>
+        <v>0.2586089565097953</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3124405015939941</v>
+        <v>0.3123640789747746</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>443</v>
@@ -7154,19 +7154,19 @@
         <v>244306</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>219473</v>
+        <v>222360</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>268073</v>
+        <v>268080</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2261632497455612</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2031746201889074</v>
+        <v>0.2058467042989559</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2481647587088501</v>
+        <v>0.248171058580388</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>234402</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>228907</v>
+        <v>230141</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236436</v>
+        <v>236443</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9880876854776695</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9649245779534057</v>
+        <v>0.9701256874983468</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9966606981366999</v>
+        <v>0.9966910519554693</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>718</v>
@@ -7204,19 +7204,19 @@
         <v>601513</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>579608</v>
+        <v>579672</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>625582</v>
+        <v>624987</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7135441188950826</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6875594984060058</v>
+        <v>0.6876359210252253</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.742096065769519</v>
+        <v>0.7413910434902047</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>826</v>
@@ -7225,19 +7225,19 @@
         <v>835915</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>812148</v>
+        <v>812141</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>860748</v>
+        <v>857861</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7738367502544388</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.75183524129115</v>
+        <v>0.7518289414196123</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7968253798110924</v>
+        <v>0.7941532957010452</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>651959</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>610037</v>
+        <v>608017</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>694046</v>
+        <v>694820</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1894916429924979</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.177307244898668</v>
+        <v>0.1767201540821967</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2017242639347467</v>
+        <v>0.2019493341025434</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1368</v>
@@ -7350,19 +7350,19 @@
         <v>754928</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>719124</v>
+        <v>719149</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>792533</v>
+        <v>794726</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2078097714230301</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1979538972850301</v>
+        <v>0.1979607613516379</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2181611924825996</v>
+        <v>0.2187650131342519</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2214</v>
@@ -7371,19 +7371,19 @@
         <v>1406887</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1347620</v>
+        <v>1349789</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1465568</v>
+        <v>1471464</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1988996068021364</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1905207251351651</v>
+        <v>0.1908273132161923</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2071957222505502</v>
+        <v>0.2080291939686235</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2788607</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2746520</v>
+        <v>2745746</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2830529</v>
+        <v>2832549</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.810508357007502</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7982757360652535</v>
+        <v>0.7980506658974565</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.822692755101332</v>
+        <v>0.8232798459178031</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3872</v>
@@ -7421,19 +7421,19 @@
         <v>2877858</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2840253</v>
+        <v>2838060</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2913662</v>
+        <v>2913637</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7921902285769699</v>
+        <v>0.7921902285769697</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7818388075174003</v>
+        <v>0.781234986865748</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8020461027149698</v>
+        <v>0.802039238648362</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6324</v>
@@ -7442,19 +7442,19 @@
         <v>5666466</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5607785</v>
+        <v>5601889</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5725733</v>
+        <v>5723564</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8011003931978635</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7928042777494492</v>
+        <v>0.7919708060313769</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8094792748648348</v>
+        <v>0.8091726867838076</v>
       </c>
     </row>
     <row r="24">
